--- a/DZ_7/Лист Microsoft Excel.xlsx
+++ b/DZ_7/Лист Microsoft Excel.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitrii Sutyagin\Desktop\Новая папка\Mytraining\Excel\DZ_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D987EB4-686C-4131-AFE5-A0A6ED388F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D239224-BDD0-4A02-9C46-8DCC982D9FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,13 +81,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,6 +220,24 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="Difference"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,8 +506,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="C1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:T1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +651,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="C1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -644,8 +672,8 @@
         <v>2</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" ref="F4">Difference(F6,F7)</f>
-        <v>13</v>
+        <f t="array" ref="F4">[1]!Difference(F6,F7)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -653,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
